--- a/medicine/Psychotrope/Anticafé/Anticafé.xlsx
+++ b/medicine/Psychotrope/Anticafé/Anticafé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anticaf%C3%A9</t>
+          <t>Anticafé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anticafé est une start-up française leader dans le secteur du café-coworking fondée en 2013 par Leonid Goncharov, un Ukrainien diplômé de l'ESCP Europe[1]. En 2019, le réseau Anticafé boucle la deuxième levée de fonds de son histoire auprès de Nexity et de Raise pour un montant de 1,7 million d'euros, destinée à accélérer le programme d'ouvertures[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anticafé est une start-up française leader dans le secteur du café-coworking fondée en 2013 par Leonid Goncharov, un Ukrainien diplômé de l'ESCP Europe. En 2019, le réseau Anticafé boucle la deuxième levée de fonds de son histoire auprès de Nexity et de Raise pour un montant de 1,7 million d'euros, destinée à accélérer le programme d'ouvertures. 
 L'Anticafé dispose aujourd'hui[Quand ?] de 14 espaces, dont 9 à Paris (Station F et La Défense), 4 en province (Lyon, Bordeaux et Strasbourg) et 1 à Rome. 
 En 2020, avant le début de la crise sanitaire liée à la Covid-19, l'Anticafé visait l'ouverture de 10 nouveaux espaces, essentiellement situés à Paris.
 </t>
